--- a/Country canc data.xlsx
+++ b/Country canc data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hugo/Documents/GitHub/Cancer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AC93AD5-C06D-E244-90A2-B75DBD2CAC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCAB283-A99B-9D44-84B5-557FD366E7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20000" xr2:uid="{DE5BAD9C-06A2-C640-823D-FC2D16EE9738}"/>
+    <workbookView xWindow="25620" yWindow="9920" windowWidth="18740" windowHeight="10560" xr2:uid="{DE5BAD9C-06A2-C640-823D-FC2D16EE9738}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
